--- a/public/templates/StudentTemplate.xlsx
+++ b/public/templates/StudentTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebLearning\Gradebook\Gradebook-Frontend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minht\WebstormProjects\Gradebook-Frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDD028-E3E0-4BE2-BF06-AE3A13534FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD48FDC-4BA7-4A06-A37D-FA75537DB5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29463146-2EA1-45D9-AE7B-D784CFF9532C}"/>
   </bookViews>
@@ -34,13 +34,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MSSV</t>
   </si>
   <si>
     <t>Họ tên</t>
   </si>
+  <si>
+    <t>Võ Minh Triều</t>
+  </si>
 </sst>
 </file>
 
@@ -50,7 +53,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -430,13 +433,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.8984375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -448,8 +451,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2">
+        <v>18120615</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -494,21 +501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100362E7DE9800D3E4DAF9E6FDB77C66D4F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c4d5f1b023bb2408670be6cf7917f08a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4f634407-a31f-4228-a44c-3f4b0f7e433d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f870a31c9b5ab4b03a62537678667d50" ns3:_="">
     <xsd:import namespace="4f634407-a31f-4228-a44c-3f4b0f7e433d"/>
@@ -654,31 +646,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8A8ACA-A29D-48F0-82D3-2342CFB6C14B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B27AC94-3686-4A1D-A93F-8839BA05E09A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4f634407-a31f-4228-a44c-3f4b0f7e433d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{440C83C5-B951-4237-B8E2-5087F0AC9CA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -694,4 +677,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B27AC94-3686-4A1D-A93F-8839BA05E09A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4f634407-a31f-4228-a44c-3f4b0f7e433d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A8A8ACA-A29D-48F0-82D3-2342CFB6C14B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>